--- a/Code/Results/Cases/Case_5_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_184/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.464540978907081</v>
+        <v>1.545629258784857</v>
       </c>
       <c r="C2">
-        <v>0.1662551232977592</v>
+        <v>0.07717628820958566</v>
       </c>
       <c r="D2">
-        <v>0.01225560760656919</v>
+        <v>0.01815585547011267</v>
       </c>
       <c r="E2">
-        <v>0.02627696900190557</v>
+        <v>0.06961748551169222</v>
       </c>
       <c r="F2">
-        <v>1.963025513618589</v>
+        <v>3.570975794395295</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.164108663758014</v>
+        <v>2.218182416072231</v>
       </c>
       <c r="J2">
-        <v>0.05929236221204093</v>
+        <v>0.1477815485477514</v>
       </c>
       <c r="K2">
-        <v>1.480861749650188</v>
+        <v>1.352588289995509</v>
       </c>
       <c r="L2">
-        <v>0.2412663450114678</v>
+        <v>0.3814899393343723</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.837003220101835</v>
+        <v>3.514942601426007</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.297911127491631</v>
+        <v>1.51096712221559</v>
       </c>
       <c r="C3">
-        <v>0.1441295529810986</v>
+        <v>0.07145143369969276</v>
       </c>
       <c r="D3">
-        <v>0.01065188125531336</v>
+        <v>0.01780671062417127</v>
       </c>
       <c r="E3">
-        <v>0.02531767393539575</v>
+        <v>0.06968500031629077</v>
       </c>
       <c r="F3">
-        <v>1.895936970344323</v>
+        <v>3.570356853167937</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.141523600719601</v>
+        <v>2.221860651120018</v>
       </c>
       <c r="J3">
-        <v>0.05929784207119226</v>
+        <v>0.148324769332369</v>
       </c>
       <c r="K3">
-        <v>1.30569165702596</v>
+        <v>1.314252251397221</v>
       </c>
       <c r="L3">
-        <v>0.2206047488585057</v>
+        <v>0.3783461650575219</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.880883137745769</v>
+        <v>3.534378708461389</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.197134536487908</v>
+        <v>1.490490830023106</v>
       </c>
       <c r="C4">
-        <v>0.130743033487434</v>
+        <v>0.06797973033009441</v>
       </c>
       <c r="D4">
-        <v>0.009669048214856701</v>
+        <v>0.01759941358067252</v>
       </c>
       <c r="E4">
-        <v>0.02475219122974437</v>
+        <v>0.06974613591110135</v>
       </c>
       <c r="F4">
-        <v>1.857509360697208</v>
+        <v>3.571361696658784</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.129240913057096</v>
+        <v>2.224912492693676</v>
       </c>
       <c r="J4">
-        <v>0.05935586306809171</v>
+        <v>0.1486949130674198</v>
       </c>
       <c r="K4">
-        <v>1.199736012026648</v>
+        <v>1.291455622419477</v>
       </c>
       <c r="L4">
-        <v>0.208204038494344</v>
+        <v>0.3765853697630277</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.909618598650638</v>
+        <v>3.547150963245514</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.156418312983874</v>
+        <v>1.482349752132905</v>
       </c>
       <c r="C5">
-        <v>0.1253317647186236</v>
+        <v>0.06657583476550144</v>
       </c>
       <c r="D5">
-        <v>0.009268875397207665</v>
+        <v>0.01751673526084829</v>
       </c>
       <c r="E5">
-        <v>0.02452745888777663</v>
+        <v>0.06977601291381141</v>
       </c>
       <c r="F5">
-        <v>1.842508668250574</v>
+        <v>3.57211958177399</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.124615244981797</v>
+        <v>2.226355728356701</v>
       </c>
       <c r="J5">
-        <v>0.05939288084552885</v>
+        <v>0.148854970079709</v>
       </c>
       <c r="K5">
-        <v>1.156921577420349</v>
+        <v>1.282352599688409</v>
       </c>
       <c r="L5">
-        <v>0.2032175087057766</v>
+        <v>0.375910529532355</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.921766270999335</v>
+        <v>3.552566584178678</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.149677639154817</v>
+        <v>1.481010215716026</v>
       </c>
       <c r="C6">
-        <v>0.124435704728981</v>
+        <v>0.06634337275414737</v>
       </c>
       <c r="D6">
-        <v>0.009202444014682953</v>
+        <v>0.01750311561294993</v>
       </c>
       <c r="E6">
-        <v>0.02449048101914464</v>
+        <v>0.06978127420067359</v>
       </c>
       <c r="F6">
-        <v>1.840056586503238</v>
+        <v>3.57226647569162</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.123869555950705</v>
+        <v>2.226607433454376</v>
       </c>
       <c r="J6">
-        <v>0.0593998249668779</v>
+        <v>0.148882104790367</v>
       </c>
       <c r="K6">
-        <v>1.149833128713254</v>
+        <v>1.280852338585163</v>
       </c>
       <c r="L6">
-        <v>0.202393398346743</v>
+        <v>0.3758010539815544</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.923809453178876</v>
+        <v>3.55347857716626</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.196584046383464</v>
+        <v>1.490380213408997</v>
       </c>
       <c r="C7">
-        <v>0.1306698854805859</v>
+        <v>0.06796075303942928</v>
       </c>
       <c r="D7">
-        <v>0.009663650129606793</v>
+        <v>0.01759829125448675</v>
       </c>
       <c r="E7">
-        <v>0.02474913757349739</v>
+        <v>0.06974651872506143</v>
       </c>
       <c r="F7">
-        <v>1.857304434866847</v>
+        <v>3.571370506881053</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.129177016637129</v>
+        <v>2.224931148459788</v>
       </c>
       <c r="J7">
-        <v>0.05935630862530239</v>
+        <v>0.1486970342977543</v>
       </c>
       <c r="K7">
-        <v>1.199157179988248</v>
+        <v>1.291332099247143</v>
       </c>
       <c r="L7">
-        <v>0.2081365240216542</v>
+        <v>0.3765760956449284</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.909780670746777</v>
+        <v>3.547223146601162</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.406746726792647</v>
+        <v>1.533510610706855</v>
       </c>
       <c r="C8">
-        <v>0.1585811833358406</v>
+        <v>0.07519331871972668</v>
       </c>
       <c r="D8">
-        <v>0.01170217447038624</v>
+        <v>0.01803401087222767</v>
       </c>
       <c r="E8">
-        <v>0.02594118994229255</v>
+        <v>0.06963668851190086</v>
       </c>
       <c r="F8">
-        <v>1.939296850225176</v>
+        <v>3.570475042491807</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.155980725732952</v>
+        <v>2.219286048031428</v>
       </c>
       <c r="J8">
-        <v>0.05928267777123253</v>
+        <v>0.1479612634908918</v>
       </c>
       <c r="K8">
-        <v>1.420106920711106</v>
+        <v>1.339216181493526</v>
       </c>
       <c r="L8">
-        <v>0.2340798676647893</v>
+        <v>0.3803708316214198</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.851752712522355</v>
+        <v>3.521470159716721</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.832761670199687</v>
+        <v>1.624476395604432</v>
       </c>
       <c r="C9">
-        <v>0.2151908909688984</v>
+        <v>0.08972391575447602</v>
       </c>
       <c r="D9">
-        <v>0.01572119587549636</v>
+        <v>0.01894395548658423</v>
       </c>
       <c r="E9">
-        <v>0.02847579288206781</v>
+        <v>0.06957686567079158</v>
       </c>
       <c r="F9">
-        <v>2.123795364908219</v>
+        <v>3.579703873641066</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.222032119610304</v>
+        <v>2.214509288776469</v>
       </c>
       <c r="J9">
-        <v>0.05958992421041032</v>
+        <v>0.1468081733529871</v>
       </c>
       <c r="K9">
-        <v>1.867982670702389</v>
+        <v>1.438999072899236</v>
       </c>
       <c r="L9">
-        <v>0.2874629305159857</v>
+        <v>0.3891545921644877</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.752821754082362</v>
+        <v>3.477620897697577</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.156814452180697</v>
+        <v>1.695197219962267</v>
       </c>
       <c r="C10">
-        <v>0.2583809401370445</v>
+        <v>0.1006172201936408</v>
       </c>
       <c r="D10">
-        <v>0.01869787157584923</v>
+        <v>0.01964551899122924</v>
       </c>
       <c r="E10">
-        <v>0.03047371608318095</v>
+        <v>0.06962698538396772</v>
       </c>
       <c r="F10">
-        <v>2.276478949668615</v>
+        <v>3.593181707804931</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.280166227901361</v>
+        <v>2.214836170887708</v>
       </c>
       <c r="J10">
-        <v>0.06011804195495785</v>
+        <v>0.1461367586338511</v>
       </c>
       <c r="K10">
-        <v>2.208823058534165</v>
+        <v>1.515900363879126</v>
       </c>
       <c r="L10">
-        <v>0.3285795952045873</v>
+        <v>0.3964240867530151</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.690151967995561</v>
+        <v>3.449459894758121</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.307271050976397</v>
+        <v>1.728213758628101</v>
       </c>
       <c r="C11">
-        <v>0.2784887054969829</v>
+        <v>0.1056214530945283</v>
       </c>
       <c r="D11">
-        <v>0.02006001222436993</v>
+        <v>0.01997168734945021</v>
       </c>
       <c r="E11">
-        <v>0.03141592196568688</v>
+        <v>0.0696700574089224</v>
       </c>
       <c r="F11">
-        <v>2.350314719567677</v>
+        <v>3.600768040855087</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.309037697854649</v>
+        <v>2.215818099032859</v>
       </c>
       <c r="J11">
-        <v>0.06043056473975383</v>
+        <v>0.1458692977201004</v>
       </c>
       <c r="K11">
-        <v>2.367147742756799</v>
+        <v>1.551666185535822</v>
       </c>
       <c r="L11">
-        <v>0.3477860944322515</v>
+        <v>0.3999079873146769</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.664051754403559</v>
+        <v>3.437529257273937</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.364740460651205</v>
+        <v>1.740837575793989</v>
       </c>
       <c r="C12">
-        <v>0.286179526398314</v>
+        <v>0.1075235272834618</v>
       </c>
       <c r="D12">
-        <v>0.02057723360905683</v>
+        <v>0.02009619368610061</v>
       </c>
       <c r="E12">
-        <v>0.0317778505916273</v>
+        <v>0.06968926908403894</v>
       </c>
       <c r="F12">
-        <v>2.378964296035889</v>
+        <v>3.603850007860089</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.320350568754279</v>
+        <v>2.216309729254178</v>
       </c>
       <c r="J12">
-        <v>0.06055990829865365</v>
+        <v>0.1457734622182336</v>
       </c>
       <c r="K12">
-        <v>2.427636662778525</v>
+        <v>1.565322305470545</v>
       </c>
       <c r="L12">
-        <v>0.3551394922891404</v>
+        <v>0.4012526427625289</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.654536599695035</v>
+        <v>3.433138004589608</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.352340424185059</v>
+        <v>1.738113427806695</v>
       </c>
       <c r="C13">
-        <v>0.2845195966774554</v>
+        <v>0.1071135657327602</v>
       </c>
       <c r="D13">
-        <v>0.02046577374433056</v>
+        <v>0.02006933509577991</v>
       </c>
       <c r="E13">
-        <v>0.03169966861490181</v>
+        <v>0.0696850026932605</v>
       </c>
       <c r="F13">
-        <v>2.372762415659551</v>
+        <v>3.603176948491708</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.317896719750294</v>
+        <v>2.216198520272599</v>
       </c>
       <c r="J13">
-        <v>0.0605315525069301</v>
+        <v>0.1457938601069237</v>
       </c>
       <c r="K13">
-        <v>2.4145844247372</v>
+        <v>1.562376221061157</v>
       </c>
       <c r="L13">
-        <v>0.3535520979671389</v>
+        <v>0.4009619195746836</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.656569098181052</v>
+        <v>3.434078106512729</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.311988832152849</v>
+        <v>1.729249901385572</v>
       </c>
       <c r="C14">
-        <v>0.2791198396195114</v>
+        <v>0.1057777956453378</v>
       </c>
       <c r="D14">
-        <v>0.02010253455865652</v>
+        <v>0.01998191074508071</v>
       </c>
       <c r="E14">
-        <v>0.03144559306147343</v>
+        <v>0.06967157989918427</v>
       </c>
       <c r="F14">
-        <v>2.352657554819018</v>
+        <v>3.601017404084274</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.309960613380753</v>
+        <v>2.215856144984585</v>
       </c>
       <c r="J14">
-        <v>0.06044098184190361</v>
+        <v>0.1458613042048462</v>
       </c>
       <c r="K14">
-        <v>2.372113097183615</v>
+        <v>1.552787431737528</v>
       </c>
       <c r="L14">
-        <v>0.348389404392961</v>
+        <v>0.4000181047159401</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.66326141899701</v>
+        <v>3.43716544809665</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.287338534418723</v>
+        <v>1.72383650430487</v>
       </c>
       <c r="C15">
-        <v>0.2758226091104632</v>
+        <v>0.1049605216954888</v>
       </c>
       <c r="D15">
-        <v>0.01988023148737739</v>
+        <v>0.01992848969486616</v>
       </c>
       <c r="E15">
-        <v>0.03129064391350234</v>
+        <v>0.06966373546561933</v>
       </c>
       <c r="F15">
-        <v>2.340434420337459</v>
+        <v>3.599721861198589</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.305149959362709</v>
+        <v>2.215662030527852</v>
       </c>
       <c r="J15">
-        <v>0.06038695581137432</v>
+        <v>0.1459033245048325</v>
       </c>
       <c r="K15">
-        <v>2.346169827106706</v>
+        <v>1.546928650059897</v>
       </c>
       <c r="L15">
-        <v>0.3452378170071739</v>
+        <v>0.3994432937436017</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.667409330521622</v>
+        <v>3.439073026349632</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.147047765932314</v>
+        <v>1.693056488154753</v>
       </c>
       <c r="C16">
-        <v>0.257076967916106</v>
+        <v>0.1002911692206112</v>
       </c>
       <c r="D16">
-        <v>0.0186090351083692</v>
+        <v>0.01962434303742455</v>
       </c>
       <c r="E16">
-        <v>0.03041284011806056</v>
+        <v>0.06962457726610438</v>
       </c>
       <c r="F16">
-        <v>2.271746721651311</v>
+        <v>3.592715199444072</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.278330813467988</v>
+        <v>2.214788764315415</v>
       </c>
       <c r="J16">
-        <v>0.06009912274495832</v>
+        <v>0.1461550006880827</v>
       </c>
       <c r="K16">
-        <v>2.198547392685725</v>
+        <v>1.513578721115181</v>
       </c>
       <c r="L16">
-        <v>0.3273351876021593</v>
+        <v>0.396199960740617</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.691907985243759</v>
+        <v>3.450257303944824</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.061802443164652</v>
+        <v>1.674390170281072</v>
       </c>
       <c r="C17">
-        <v>0.2457020247941557</v>
+        <v>0.0974392180087591</v>
       </c>
       <c r="D17">
-        <v>0.01783142602137389</v>
+        <v>0.01943954600863051</v>
       </c>
       <c r="E17">
-        <v>0.02988310890876633</v>
+        <v>0.06960573728445851</v>
       </c>
       <c r="F17">
-        <v>2.230771557150774</v>
+        <v>3.588789500354764</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.262520676334574</v>
+        <v>2.214466436963654</v>
       </c>
       <c r="J17">
-        <v>0.05994147233332825</v>
+        <v>0.1463191108168154</v>
       </c>
       <c r="K17">
-        <v>2.108868184897204</v>
+        <v>1.493320016686312</v>
       </c>
       <c r="L17">
-        <v>0.3164866855244952</v>
+        <v>0.3942555572566846</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.707569075435828</v>
+        <v>3.457343930555353</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.01305432954473</v>
+        <v>1.66373338221365</v>
       </c>
       <c r="C18">
-        <v>0.2392021240577833</v>
+        <v>0.09580344208092129</v>
       </c>
       <c r="D18">
-        <v>0.01738490538433268</v>
+        <v>0.01933391771606452</v>
       </c>
       <c r="E18">
-        <v>0.02958153757070825</v>
+        <v>0.06959680997720241</v>
       </c>
       <c r="F18">
-        <v>2.207612028803851</v>
+        <v>3.586668515986759</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.253653429574037</v>
+        <v>2.214359471230537</v>
       </c>
       <c r="J18">
-        <v>0.05985756005007659</v>
+        <v>0.1464170772580395</v>
       </c>
       <c r="K18">
-        <v>2.057591146741203</v>
+        <v>1.481741461946683</v>
       </c>
       <c r="L18">
-        <v>0.310293670127038</v>
+        <v>0.3931538493068274</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.716802187983134</v>
+        <v>3.461502789782699</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.996595959645219</v>
+        <v>1.660138857207073</v>
       </c>
       <c r="C19">
-        <v>0.237008400988131</v>
+        <v>0.09525038312901302</v>
       </c>
       <c r="D19">
-        <v>0.01723384096807479</v>
+        <v>0.01929826800918377</v>
       </c>
       <c r="E19">
-        <v>0.02947995595777897</v>
+        <v>0.06959411563359197</v>
       </c>
       <c r="F19">
-        <v>2.199839001304269</v>
+        <v>3.58597391471163</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.250689104415798</v>
+        <v>2.214336725354102</v>
       </c>
       <c r="J19">
-        <v>0.05983029297518172</v>
+        <v>0.1464508613809912</v>
       </c>
       <c r="K19">
-        <v>2.040279994282258</v>
+        <v>1.47783382988132</v>
       </c>
       <c r="L19">
-        <v>0.3082046173815201</v>
+        <v>0.3927836937083953</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.719966412034779</v>
+        <v>3.462925129776238</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.070847293242025</v>
+        <v>1.676368997775967</v>
       </c>
       <c r="C20">
-        <v>0.2469084201028409</v>
+        <v>0.09774233750007966</v>
       </c>
       <c r="D20">
-        <v>0.01791412556072203</v>
+        <v>0.01945914956678152</v>
       </c>
       <c r="E20">
-        <v>0.02993917482330666</v>
+        <v>0.06960754536447489</v>
       </c>
       <c r="F20">
-        <v>2.235090759449477</v>
+        <v>3.589193221939297</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.264180052857924</v>
+        <v>2.214492632371297</v>
       </c>
       <c r="J20">
-        <v>0.05995755022628657</v>
+        <v>0.1463012711517919</v>
       </c>
       <c r="K20">
-        <v>2.118382775248335</v>
+        <v>1.49546896261424</v>
       </c>
       <c r="L20">
-        <v>0.317636631782733</v>
+        <v>0.3944608184354195</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.705878457991915</v>
+        <v>3.456580974971942</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.323827163733881</v>
+        <v>1.731850048422757</v>
       </c>
       <c r="C21">
-        <v>0.2807037178141911</v>
+        <v>0.1061699510729568</v>
       </c>
       <c r="D21">
-        <v>0.02020918632661406</v>
+        <v>0.02000756256414249</v>
       </c>
       <c r="E21">
-        <v>0.03152007895827857</v>
+        <v>0.06967544387091529</v>
       </c>
       <c r="F21">
-        <v>2.358543620449169</v>
+        <v>3.601646037860377</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.312281069013039</v>
+        <v>2.215953457853175</v>
       </c>
       <c r="J21">
-        <v>0.06046728107438071</v>
+        <v>0.1458413465409052</v>
       </c>
       <c r="K21">
-        <v>2.384572902432154</v>
+        <v>1.555600843386912</v>
       </c>
       <c r="L21">
-        <v>0.3499035649044657</v>
+        <v>0.4002946378256809</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.661285536577921</v>
+        <v>3.436255183875971</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.492078386571279</v>
+        <v>1.768816223718261</v>
       </c>
       <c r="C22">
-        <v>0.3032419837940949</v>
+        <v>0.1117191785284319</v>
       </c>
       <c r="D22">
-        <v>0.02171748961154663</v>
+        <v>0.02037176525657713</v>
       </c>
       <c r="E22">
-        <v>0.03258340671329663</v>
+        <v>0.06973672370039985</v>
       </c>
       <c r="F22">
-        <v>2.44327844507103</v>
+        <v>3.611003948694119</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.345948581501929</v>
+        <v>2.217606442728737</v>
       </c>
       <c r="J22">
-        <v>0.06086484476587017</v>
+        <v>0.1455724972210781</v>
       </c>
       <c r="K22">
-        <v>2.561694819305899</v>
+        <v>1.595555437929931</v>
       </c>
       <c r="L22">
-        <v>0.3714642932817185</v>
+        <v>0.4042552658728482</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.634300792142895</v>
+        <v>3.423709190280888</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.401992609914601</v>
+        <v>1.749022196283477</v>
       </c>
       <c r="C23">
-        <v>0.2911679613105491</v>
+        <v>0.1087536528538635</v>
       </c>
       <c r="D23">
-        <v>0.02091162425935522</v>
+        <v>0.0201768596844154</v>
       </c>
       <c r="E23">
-        <v>0.03201301229325715</v>
+        <v>0.06970247533132756</v>
       </c>
       <c r="F23">
-        <v>2.397661932281025</v>
+        <v>3.605897913040693</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.32776446673671</v>
+        <v>2.21666033001263</v>
       </c>
       <c r="J23">
-        <v>0.06064654852558249</v>
+        <v>0.1457130876410879</v>
       </c>
       <c r="K23">
-        <v>2.4668504743548</v>
+        <v>1.574171064109152</v>
       </c>
       <c r="L23">
-        <v>0.3599108343717745</v>
+        <v>0.4021278952440355</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.648497621164324</v>
+        <v>3.430337658783785</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.066757309196589</v>
+        <v>1.675474137066317</v>
       </c>
       <c r="C24">
-        <v>0.246362885871406</v>
+        <v>0.09760528519461786</v>
       </c>
       <c r="D24">
-        <v>0.01787673544458457</v>
+        <v>0.01945028488424683</v>
       </c>
       <c r="E24">
-        <v>0.02991381817237482</v>
+        <v>0.06960672199987705</v>
       </c>
       <c r="F24">
-        <v>2.233136813988494</v>
+        <v>3.589010275904172</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.263429158902049</v>
+        <v>2.214480545373917</v>
       </c>
       <c r="J24">
-        <v>0.05995026051521535</v>
+        <v>0.1463093251954177</v>
       </c>
       <c r="K24">
-        <v>2.11408035928784</v>
+        <v>1.494497210945013</v>
       </c>
       <c r="L24">
-        <v>0.3171166048399243</v>
+        <v>0.3943679695293412</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.706642073429308</v>
+        <v>3.456925643451115</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.715771560051365</v>
+        <v>1.599184536871718</v>
       </c>
       <c r="C25">
-        <v>0.1996310008736373</v>
+        <v>0.08575519842256085</v>
       </c>
       <c r="D25">
-        <v>0.01463060310066311</v>
+        <v>0.01869193384603562</v>
       </c>
       <c r="E25">
-        <v>0.02776748414119901</v>
+        <v>0.06957647496785313</v>
       </c>
       <c r="F25">
-        <v>2.071081989382208</v>
+        <v>3.5760311691688</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.202583473830749</v>
+        <v>2.215127821023948</v>
       </c>
       <c r="J25">
-        <v>0.05945579339918083</v>
+        <v>0.1470891862454273</v>
       </c>
       <c r="K25">
-        <v>1.74497402549909</v>
+        <v>1.411374934514924</v>
       </c>
       <c r="L25">
-        <v>0.2727167558189336</v>
+        <v>0.3866348840376048</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.777900627780326</v>
+        <v>3.488771166570814</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_184/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_184/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.545629258784857</v>
+        <v>1.46454097890711</v>
       </c>
       <c r="C2">
-        <v>0.07717628820958566</v>
+        <v>0.1662551232976313</v>
       </c>
       <c r="D2">
-        <v>0.01815585547011267</v>
+        <v>0.01225560760656208</v>
       </c>
       <c r="E2">
-        <v>0.06961748551169222</v>
+        <v>0.02627696900190379</v>
       </c>
       <c r="F2">
-        <v>3.570975794395295</v>
+        <v>1.963025513618561</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,22 +442,22 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.218182416072231</v>
+        <v>1.164108663758</v>
       </c>
       <c r="J2">
-        <v>0.1477815485477514</v>
+        <v>0.05929236221198408</v>
       </c>
       <c r="K2">
-        <v>1.352588289995509</v>
+        <v>1.48086174965016</v>
       </c>
       <c r="L2">
-        <v>0.3814899393343723</v>
+        <v>0.2412663450113968</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>3.514942601426007</v>
+        <v>1.837003220101806</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.51096712221559</v>
+        <v>1.297911127491659</v>
       </c>
       <c r="C3">
-        <v>0.07145143369969276</v>
+        <v>0.1441295529811129</v>
       </c>
       <c r="D3">
-        <v>0.01780671062417127</v>
+        <v>0.01065188125506111</v>
       </c>
       <c r="E3">
-        <v>0.06968500031629077</v>
+        <v>0.02531767393540818</v>
       </c>
       <c r="F3">
-        <v>3.570356853167937</v>
+        <v>1.895936970344323</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,22 +489,22 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.221860651120018</v>
+        <v>1.141523600719609</v>
       </c>
       <c r="J3">
-        <v>0.148324769332369</v>
+        <v>0.05929784207117805</v>
       </c>
       <c r="K3">
-        <v>1.314252251397221</v>
+        <v>1.305691657026046</v>
       </c>
       <c r="L3">
-        <v>0.3783461650575219</v>
+        <v>0.2206047488584773</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.534378708461389</v>
+        <v>1.880883137745755</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.490490830023106</v>
+        <v>1.197134536487965</v>
       </c>
       <c r="C4">
-        <v>0.06797973033009441</v>
+        <v>0.1307430334874056</v>
       </c>
       <c r="D4">
-        <v>0.01759941358067252</v>
+        <v>0.009669048214963283</v>
       </c>
       <c r="E4">
-        <v>0.06974613591110135</v>
+        <v>0.0247521912297568</v>
       </c>
       <c r="F4">
-        <v>3.571361696658784</v>
+        <v>1.857509360697193</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,22 +536,22 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.224912492693676</v>
+        <v>1.129240913057096</v>
       </c>
       <c r="J4">
-        <v>0.1486949130674198</v>
+        <v>0.05935586306791407</v>
       </c>
       <c r="K4">
-        <v>1.291455622419477</v>
+        <v>1.199736012026762</v>
       </c>
       <c r="L4">
-        <v>0.3765853697630277</v>
+        <v>0.2082040384943014</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.547150963245514</v>
+        <v>1.909618598650646</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.482349752132905</v>
+        <v>1.156418312983902</v>
       </c>
       <c r="C5">
-        <v>0.06657583476550144</v>
+        <v>0.125331764718652</v>
       </c>
       <c r="D5">
-        <v>0.01751673526084829</v>
+        <v>0.009268875397275167</v>
       </c>
       <c r="E5">
-        <v>0.06977601291381141</v>
+        <v>0.02452745888780505</v>
       </c>
       <c r="F5">
-        <v>3.57211958177399</v>
+        <v>1.842508668250574</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.226355728356701</v>
+        <v>1.124615244981811</v>
       </c>
       <c r="J5">
-        <v>0.148854970079709</v>
+        <v>0.05939288084558392</v>
       </c>
       <c r="K5">
-        <v>1.282352599688409</v>
+        <v>1.156921577420405</v>
       </c>
       <c r="L5">
-        <v>0.375910529532355</v>
+        <v>0.2032175087057269</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.552566584178678</v>
+        <v>1.921766270999385</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.481010215716026</v>
+        <v>1.149677639154902</v>
       </c>
       <c r="C6">
-        <v>0.06634337275414737</v>
+        <v>0.1244357047286968</v>
       </c>
       <c r="D6">
-        <v>0.01750311561294993</v>
+        <v>0.009202444014480449</v>
       </c>
       <c r="E6">
-        <v>0.06978127420067359</v>
+        <v>0.0244904810191553</v>
       </c>
       <c r="F6">
-        <v>3.57226647569162</v>
+        <v>1.840056586503252</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,22 +630,22 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.226607433454376</v>
+        <v>1.123869555950698</v>
       </c>
       <c r="J6">
-        <v>0.148882104790367</v>
+        <v>0.05939982496687257</v>
       </c>
       <c r="K6">
-        <v>1.280852338585163</v>
+        <v>1.149833128713226</v>
       </c>
       <c r="L6">
-        <v>0.3758010539815544</v>
+        <v>0.2023933983467217</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.55347857716626</v>
+        <v>1.923809453178869</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.490380213408997</v>
+        <v>1.196584046383379</v>
       </c>
       <c r="C7">
-        <v>0.06796075303942928</v>
+        <v>0.1306698854805717</v>
       </c>
       <c r="D7">
-        <v>0.01759829125448675</v>
+        <v>0.009663650129397183</v>
       </c>
       <c r="E7">
-        <v>0.06974651872506143</v>
+        <v>0.0247491375735116</v>
       </c>
       <c r="F7">
-        <v>3.571370506881053</v>
+        <v>1.857304434866791</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,22 +677,22 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.224931148459788</v>
+        <v>1.129177016637101</v>
       </c>
       <c r="J7">
-        <v>0.1486970342977543</v>
+        <v>0.05935630862536634</v>
       </c>
       <c r="K7">
-        <v>1.291332099247143</v>
+        <v>1.199157179988305</v>
       </c>
       <c r="L7">
-        <v>0.3765760956449284</v>
+        <v>0.2081365240217323</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.547223146601162</v>
+        <v>1.909780670746727</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.533510610706855</v>
+        <v>1.406746726792591</v>
       </c>
       <c r="C8">
-        <v>0.07519331871972668</v>
+        <v>0.1585811833354001</v>
       </c>
       <c r="D8">
-        <v>0.01803401087222767</v>
+        <v>0.01170217447038624</v>
       </c>
       <c r="E8">
-        <v>0.06963668851190086</v>
+        <v>0.02594118994230499</v>
       </c>
       <c r="F8">
-        <v>3.570475042491807</v>
+        <v>1.939296850225205</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,22 +724,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.219286048031428</v>
+        <v>1.155980725732931</v>
       </c>
       <c r="J8">
-        <v>0.1479612634908918</v>
+        <v>0.05928267777125384</v>
       </c>
       <c r="K8">
-        <v>1.339216181493526</v>
+        <v>1.420106920711191</v>
       </c>
       <c r="L8">
-        <v>0.3803708316214198</v>
+        <v>0.2340798676647182</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.521470159716721</v>
+        <v>1.851752712522341</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.624476395604432</v>
+        <v>1.832761670199744</v>
       </c>
       <c r="C9">
-        <v>0.08972391575447602</v>
+        <v>0.2151908909688984</v>
       </c>
       <c r="D9">
-        <v>0.01894395548658423</v>
+        <v>0.01572119587551768</v>
       </c>
       <c r="E9">
-        <v>0.06957686567079158</v>
+        <v>0.02847579288203939</v>
       </c>
       <c r="F9">
-        <v>3.579703873641066</v>
+        <v>2.12379536490819</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,22 +771,22 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.214509288776469</v>
+        <v>1.222032119610283</v>
       </c>
       <c r="J9">
-        <v>0.1468081733529871</v>
+        <v>0.05958992421039255</v>
       </c>
       <c r="K9">
-        <v>1.438999072899236</v>
+        <v>1.867982670702446</v>
       </c>
       <c r="L9">
-        <v>0.3891545921644877</v>
+        <v>0.2874629305159715</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.477620897697577</v>
+        <v>1.752821754082348</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.695197219962267</v>
+        <v>2.156814452180697</v>
       </c>
       <c r="C10">
-        <v>0.1006172201936408</v>
+        <v>0.2583809401367603</v>
       </c>
       <c r="D10">
-        <v>0.01964551899122924</v>
+        <v>0.01869787157583147</v>
       </c>
       <c r="E10">
-        <v>0.06962698538396772</v>
+        <v>0.0304737160831845</v>
       </c>
       <c r="F10">
-        <v>3.593181707804931</v>
+        <v>2.276478949668615</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.214836170887708</v>
+        <v>1.280166227901319</v>
       </c>
       <c r="J10">
-        <v>0.1461367586338511</v>
+        <v>0.06011804195497206</v>
       </c>
       <c r="K10">
-        <v>1.515900363879126</v>
+        <v>2.20882305853408</v>
       </c>
       <c r="L10">
-        <v>0.3964240867530151</v>
+        <v>0.3285795952045589</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>3.449459894758121</v>
+        <v>1.690151967995504</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.728213758628101</v>
+        <v>2.307271050976283</v>
       </c>
       <c r="C11">
-        <v>0.1056214530945283</v>
+        <v>0.2784887054972671</v>
       </c>
       <c r="D11">
-        <v>0.01997168734945021</v>
+        <v>0.02006001222434861</v>
       </c>
       <c r="E11">
-        <v>0.0696700574089224</v>
+        <v>0.03141592196573839</v>
       </c>
       <c r="F11">
-        <v>3.600768040855087</v>
+        <v>2.350314719567677</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.215818099032859</v>
+        <v>1.309037697854606</v>
       </c>
       <c r="J11">
-        <v>0.1458692977201004</v>
+        <v>0.06043056473982844</v>
       </c>
       <c r="K11">
-        <v>1.551666185535822</v>
+        <v>2.367147742756828</v>
       </c>
       <c r="L11">
-        <v>0.3999079873146769</v>
+        <v>0.3477860944322799</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3.437529257273937</v>
+        <v>1.664051754403559</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.740837575793989</v>
+        <v>2.364740460651319</v>
       </c>
       <c r="C12">
-        <v>0.1075235272834618</v>
+        <v>0.2861795263987972</v>
       </c>
       <c r="D12">
-        <v>0.02009619368610061</v>
+        <v>0.02057723360918118</v>
       </c>
       <c r="E12">
-        <v>0.06968926908403894</v>
+        <v>0.0317778505916273</v>
       </c>
       <c r="F12">
-        <v>3.603850007860089</v>
+        <v>2.378964296035903</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,22 +912,22 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.216309729254178</v>
+        <v>1.320350568754293</v>
       </c>
       <c r="J12">
-        <v>0.1457734622182336</v>
+        <v>0.06055990829860747</v>
       </c>
       <c r="K12">
-        <v>1.565322305470545</v>
+        <v>2.427636662778554</v>
       </c>
       <c r="L12">
-        <v>0.4012526427625289</v>
+        <v>0.3551394922892115</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3.433138004589608</v>
+        <v>1.654536599694993</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.738113427806695</v>
+        <v>2.352340424185002</v>
       </c>
       <c r="C13">
-        <v>0.1071135657327602</v>
+        <v>0.2845195966776544</v>
       </c>
       <c r="D13">
-        <v>0.02006933509577991</v>
+        <v>0.02046577374441583</v>
       </c>
       <c r="E13">
-        <v>0.0696850026932605</v>
+        <v>0.03169966861490536</v>
       </c>
       <c r="F13">
-        <v>3.603176948491708</v>
+        <v>2.372762415659551</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,22 +959,22 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.216198520272599</v>
+        <v>1.31789671975028</v>
       </c>
       <c r="J13">
-        <v>0.1457938601069237</v>
+        <v>0.06053155250683062</v>
       </c>
       <c r="K13">
-        <v>1.562376221061157</v>
+        <v>2.414584424737143</v>
       </c>
       <c r="L13">
-        <v>0.4009619195746836</v>
+        <v>0.3535520979671389</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.434078106512729</v>
+        <v>1.656569098181009</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.729249901385572</v>
+        <v>2.311988832152792</v>
       </c>
       <c r="C14">
-        <v>0.1057777956453378</v>
+        <v>0.2791198396193124</v>
       </c>
       <c r="D14">
-        <v>0.01998191074508071</v>
+        <v>0.02010253455862454</v>
       </c>
       <c r="E14">
-        <v>0.06967157989918427</v>
+        <v>0.03144559306149475</v>
       </c>
       <c r="F14">
-        <v>3.601017404084274</v>
+        <v>2.352657554819018</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.215856144984585</v>
+        <v>1.309960613380781</v>
       </c>
       <c r="J14">
-        <v>0.1458613042048462</v>
+        <v>0.06044098184187519</v>
       </c>
       <c r="K14">
-        <v>1.552787431737528</v>
+        <v>2.372113097183643</v>
       </c>
       <c r="L14">
-        <v>0.4000181047159401</v>
+        <v>0.3483894043929467</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.43716544809665</v>
+        <v>1.663261418997038</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.72383650430487</v>
+        <v>2.287338534418723</v>
       </c>
       <c r="C15">
-        <v>0.1049605216954888</v>
+        <v>0.2758226091103779</v>
       </c>
       <c r="D15">
-        <v>0.01992848969486616</v>
+        <v>0.01988023148768647</v>
       </c>
       <c r="E15">
-        <v>0.06966373546561933</v>
+        <v>0.0312906439134828</v>
       </c>
       <c r="F15">
-        <v>3.599721861198589</v>
+        <v>2.340434420337459</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.215662030527852</v>
+        <v>1.305149959362709</v>
       </c>
       <c r="J15">
-        <v>0.1459033245048325</v>
+        <v>0.06038695581152709</v>
       </c>
       <c r="K15">
-        <v>1.546928650059897</v>
+        <v>2.346169827106621</v>
       </c>
       <c r="L15">
-        <v>0.3994432937436017</v>
+        <v>0.3452378170071455</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>3.439073026349632</v>
+        <v>1.667409330521636</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.693056488154753</v>
+        <v>2.147047765932086</v>
       </c>
       <c r="C16">
-        <v>0.1002911692206112</v>
+        <v>0.2570769679160776</v>
       </c>
       <c r="D16">
-        <v>0.01962434303742455</v>
+        <v>0.0186090351083692</v>
       </c>
       <c r="E16">
-        <v>0.06962457726610438</v>
+        <v>0.03041284011806233</v>
       </c>
       <c r="F16">
-        <v>3.592715199444072</v>
+        <v>2.271746721651297</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,22 +1100,22 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.214788764315415</v>
+        <v>1.278330813467988</v>
       </c>
       <c r="J16">
-        <v>0.1461550006880827</v>
+        <v>0.06009912274504003</v>
       </c>
       <c r="K16">
-        <v>1.513578721115181</v>
+        <v>2.198547392685697</v>
       </c>
       <c r="L16">
-        <v>0.396199960740617</v>
+        <v>0.3273351876022019</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.450257303944824</v>
+        <v>1.691907985243731</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.674390170281072</v>
+        <v>2.061802443164481</v>
       </c>
       <c r="C17">
-        <v>0.0974392180087591</v>
+        <v>0.2457020247939852</v>
       </c>
       <c r="D17">
-        <v>0.01943954600863051</v>
+        <v>0.01783142602136323</v>
       </c>
       <c r="E17">
-        <v>0.06960573728445851</v>
+        <v>0.02988310890876278</v>
       </c>
       <c r="F17">
-        <v>3.588789500354764</v>
+        <v>2.230771557150746</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,22 +1147,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.214466436963654</v>
+        <v>1.262520676334553</v>
       </c>
       <c r="J17">
-        <v>0.1463191108168154</v>
+        <v>0.05994147233336733</v>
       </c>
       <c r="K17">
-        <v>1.493320016686312</v>
+        <v>2.108868184897318</v>
       </c>
       <c r="L17">
-        <v>0.3942555572566846</v>
+        <v>0.316486685524481</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.457343930555353</v>
+        <v>1.70756907543587</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.66373338221365</v>
+        <v>2.013054329544786</v>
       </c>
       <c r="C18">
-        <v>0.09580344208092129</v>
+        <v>0.2392021240578828</v>
       </c>
       <c r="D18">
-        <v>0.01933391771606452</v>
+        <v>0.01738490538431137</v>
       </c>
       <c r="E18">
-        <v>0.06959680997720241</v>
+        <v>0.029581537570742</v>
       </c>
       <c r="F18">
-        <v>3.586668515986759</v>
+        <v>2.207612028803823</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.214359471230537</v>
+        <v>1.253653429574022</v>
       </c>
       <c r="J18">
-        <v>0.1464170772580395</v>
+        <v>0.05985756005003395</v>
       </c>
       <c r="K18">
-        <v>1.481741461946683</v>
+        <v>2.057591146741316</v>
       </c>
       <c r="L18">
-        <v>0.3931538493068274</v>
+        <v>0.3102936701270664</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.461502789782699</v>
+        <v>1.716802187983163</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.660138857207073</v>
+        <v>1.996595959645163</v>
       </c>
       <c r="C19">
-        <v>0.09525038312901302</v>
+        <v>0.2370084009883016</v>
       </c>
       <c r="D19">
-        <v>0.01929826800918377</v>
+        <v>0.01723384096805702</v>
       </c>
       <c r="E19">
-        <v>0.06959411563359197</v>
+        <v>0.02947995595775765</v>
       </c>
       <c r="F19">
-        <v>3.58597391471163</v>
+        <v>2.199839001304269</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,22 +1241,22 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.214336725354102</v>
+        <v>1.250689104415805</v>
       </c>
       <c r="J19">
-        <v>0.1464508613809912</v>
+        <v>0.05983029297503251</v>
       </c>
       <c r="K19">
-        <v>1.47783382988132</v>
+        <v>2.040279994282201</v>
       </c>
       <c r="L19">
-        <v>0.3927836937083953</v>
+        <v>0.3082046173815058</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.462925129776238</v>
+        <v>1.719966412034736</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.676368997775967</v>
+        <v>2.070847293242082</v>
       </c>
       <c r="C20">
-        <v>0.09774233750007966</v>
+        <v>0.2469084201030114</v>
       </c>
       <c r="D20">
-        <v>0.01945914956678152</v>
+        <v>0.01791412556071847</v>
       </c>
       <c r="E20">
-        <v>0.06960754536447489</v>
+        <v>0.02993917482328179</v>
       </c>
       <c r="F20">
-        <v>3.589193221939297</v>
+        <v>2.235090759449477</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.214492632371297</v>
+        <v>1.264180052857938</v>
       </c>
       <c r="J20">
-        <v>0.1463012711517919</v>
+        <v>0.05995755022629368</v>
       </c>
       <c r="K20">
-        <v>1.49546896261424</v>
+        <v>2.118382775248307</v>
       </c>
       <c r="L20">
-        <v>0.3944608184354195</v>
+        <v>0.3176366317828609</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.456580974971942</v>
+        <v>1.705878457991986</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.731850048422757</v>
+        <v>2.323827163733768</v>
       </c>
       <c r="C21">
-        <v>0.1061699510729568</v>
+        <v>0.280703717814248</v>
       </c>
       <c r="D21">
-        <v>0.02000756256414249</v>
+        <v>0.02020918632648616</v>
       </c>
       <c r="E21">
-        <v>0.06967544387091529</v>
+        <v>0.03152007895830522</v>
       </c>
       <c r="F21">
-        <v>3.601646037860377</v>
+        <v>2.35854362044914</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,22 +1335,22 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.215953457853175</v>
+        <v>1.312281069013039</v>
       </c>
       <c r="J21">
-        <v>0.1458413465409052</v>
+        <v>0.06046728107448374</v>
       </c>
       <c r="K21">
-        <v>1.555600843386912</v>
+        <v>2.384572902432126</v>
       </c>
       <c r="L21">
-        <v>0.4002946378256809</v>
+        <v>0.3499035649044799</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3.436255183875971</v>
+        <v>1.661285536577978</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.768816223718261</v>
+        <v>2.492078386571222</v>
       </c>
       <c r="C22">
-        <v>0.1117191785284319</v>
+        <v>0.3032419837939813</v>
       </c>
       <c r="D22">
-        <v>0.02037176525657713</v>
+        <v>0.02171748961176689</v>
       </c>
       <c r="E22">
-        <v>0.06973672370039985</v>
+        <v>0.03258340671326465</v>
       </c>
       <c r="F22">
-        <v>3.611003948694119</v>
+        <v>2.443278445071044</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.217606442728737</v>
+        <v>1.345948581501943</v>
       </c>
       <c r="J22">
-        <v>0.1455724972210781</v>
+        <v>0.06086484476581333</v>
       </c>
       <c r="K22">
-        <v>1.595555437929931</v>
+        <v>2.561694819305842</v>
       </c>
       <c r="L22">
-        <v>0.4042552658728482</v>
+        <v>0.3714642932817611</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3.423709190280888</v>
+        <v>1.634300792142909</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.749022196283477</v>
+        <v>2.401992609914601</v>
       </c>
       <c r="C23">
-        <v>0.1087536528538635</v>
+        <v>0.2911679613105491</v>
       </c>
       <c r="D23">
-        <v>0.0201768596844154</v>
+        <v>0.02091162425935522</v>
       </c>
       <c r="E23">
-        <v>0.06970247533132756</v>
+        <v>0.03201301229327491</v>
       </c>
       <c r="F23">
-        <v>3.605897913040693</v>
+        <v>2.397661932281039</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,22 +1429,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.21666033001263</v>
+        <v>1.32776446673671</v>
       </c>
       <c r="J23">
-        <v>0.1457130876410879</v>
+        <v>0.06064654852554341</v>
       </c>
       <c r="K23">
-        <v>1.574171064109152</v>
+        <v>2.466850474354828</v>
       </c>
       <c r="L23">
-        <v>0.4021278952440355</v>
+        <v>0.3599108343718314</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>3.430337658783785</v>
+        <v>1.648497621164353</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.675474137066317</v>
+        <v>2.066757309196589</v>
       </c>
       <c r="C24">
-        <v>0.09760528519461786</v>
+        <v>0.2463628858715481</v>
       </c>
       <c r="D24">
-        <v>0.01945028488424683</v>
+        <v>0.01787673544446733</v>
       </c>
       <c r="E24">
-        <v>0.06960672199987705</v>
+        <v>0.02991381817237482</v>
       </c>
       <c r="F24">
-        <v>3.589010275904172</v>
+        <v>2.233136813988494</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,22 +1476,22 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.214480545373917</v>
+        <v>1.263429158902049</v>
       </c>
       <c r="J24">
-        <v>0.1463093251954177</v>
+        <v>0.05995026051516206</v>
       </c>
       <c r="K24">
-        <v>1.494497210945013</v>
+        <v>2.11408035928784</v>
       </c>
       <c r="L24">
-        <v>0.3943679695293412</v>
+        <v>0.3171166048398675</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.456925643451115</v>
+        <v>1.706642073429308</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.599184536871718</v>
+        <v>1.715771560051365</v>
       </c>
       <c r="C25">
-        <v>0.08575519842256085</v>
+        <v>0.1996310008739783</v>
       </c>
       <c r="D25">
-        <v>0.01869193384603562</v>
+        <v>0.01463060310065956</v>
       </c>
       <c r="E25">
-        <v>0.06957647496785313</v>
+        <v>0.02776748414119723</v>
       </c>
       <c r="F25">
-        <v>3.5760311691688</v>
+        <v>2.071081989382208</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,22 +1523,22 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.215127821023948</v>
+        <v>1.202583473830749</v>
       </c>
       <c r="J25">
-        <v>0.1470891862454273</v>
+        <v>0.05945579339917018</v>
       </c>
       <c r="K25">
-        <v>1.411374934514924</v>
+        <v>1.744974025499062</v>
       </c>
       <c r="L25">
-        <v>0.3866348840376048</v>
+        <v>0.2727167558189194</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.488771166570814</v>
+        <v>1.777900627780369</v>
       </c>
       <c r="O25">
         <v>0</v>
